--- a/v3-0-OOP-operational/User_Inputs - Cotton.xlsx
+++ b/v3-0-OOP-operational/User_Inputs - Cotton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diane_lab\simple_model\generic_crop_model_project\Git_OOD\Generic-Object-Oriented-Plant-Model\v3-0-OOP-operational\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB93D6-F549-4429-98DE-699D14874C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B199D421-979A-4739-96BC-9307E8AB8069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6CB13956-ACFD-45EF-A623-5DC9742C36B6}"/>
   </bookViews>
@@ -658,8 +658,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -707,7 +707,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>110</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>34.762700000000002</v>
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>23.088899999999999</v>
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="C14">
         <v>0.21479999999999999</v>
@@ -860,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="8">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="C16" s="8">
         <v>0.8</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="8">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="8">
         <v>0.5</v>
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -899,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="8">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="C19">
         <v>1.35</v>
@@ -910,7 +910,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.03</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C20">
         <v>3.3000000000000002E-2</v>
@@ -921,7 +921,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="C21">
         <v>0.5</v>
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C22">
         <v>1.4999999999999999E-2</v>
@@ -945,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="9">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="C23">
         <v>0.65</v>
@@ -968,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>470</v>
+        <v>325</v>
       </c>
       <c r="C25">
         <v>345</v>
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -1024,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>62</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B31">
         <f>B30*2</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C31">
         <v>124</v>
@@ -1095,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="B35">
-        <v>0.05</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C35">
         <v>5.0000000000000001E-3</v>
